--- a/IHT and constituency data.xlsx
+++ b/IHT and constituency data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danneidle/Dropbox/Dan dropbox files/tax policy associates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E391D7FE-AD8F-1F45-A905-26976591C041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60E0550-F4F2-6A47-A61B-F0B5F33E516F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{243167A4-4519-4F6C-A5DE-A09A44FBEE89}"/>
   </bookViews>
@@ -7281,7 +7281,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7326,7 +7326,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7341,7 +7340,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7368,7 +7367,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7395,7 +7394,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7422,7 +7421,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7505,7 +7504,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7520,7 +7518,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7547,7 +7545,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7574,7 +7572,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7601,7 +7599,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7666,7 +7664,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7711,7 +7709,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7764,7 +7761,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7791,7 +7788,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7818,7 +7815,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7845,7 +7842,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7890,7 +7887,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7905,7 +7901,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7932,7 +7928,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7959,7 +7955,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7986,7 +7982,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8069,7 +8065,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8084,7 +8079,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8111,7 +8106,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8138,7 +8133,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8165,7 +8160,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8192,7 +8187,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8219,7 +8214,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8264,7 +8259,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8279,7 +8273,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8324,7 +8318,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8339,7 +8332,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8366,7 +8359,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8411,7 +8404,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8444,7 +8436,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8459,7 +8450,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8486,7 +8477,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8531,7 +8522,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8546,7 +8536,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8573,7 +8563,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8600,7 +8590,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8627,7 +8617,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8654,7 +8644,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8681,7 +8671,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8708,7 +8698,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8735,7 +8725,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8762,7 +8752,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8789,7 +8779,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8834,7 +8824,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8867,7 +8856,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8882,7 +8870,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8909,7 +8897,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8936,7 +8924,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8981,7 +8969,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8996,7 +8983,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -9023,7 +9010,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -9068,7 +9055,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -9083,7 +9069,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -9128,7 +9114,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -9161,7 +9146,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -9194,7 +9178,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -9209,7 +9192,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -9236,7 +9219,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -9281,7 +9264,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -9296,7 +9278,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -9323,7 +9305,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -9350,7 +9332,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -9377,7 +9359,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -9404,7 +9386,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -9431,7 +9413,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -9458,7 +9440,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -9485,7 +9467,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -9512,7 +9494,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -9539,7 +9521,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -9566,7 +9548,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -9593,7 +9575,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -9620,7 +9602,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -9647,7 +9629,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -9674,7 +9656,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -9719,7 +9701,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -9734,7 +9715,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -9761,7 +9742,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -9788,7 +9769,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -9815,7 +9796,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -9842,7 +9823,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -9869,7 +9850,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -9896,7 +9877,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -9941,7 +9922,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -9956,7 +9936,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -10001,7 +9981,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10016,7 +9995,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -10043,7 +10022,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -10088,7 +10067,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10121,7 +10099,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10136,7 +10113,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -11216,6 +11193,7 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -11819,6 +11797,56 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.8305</cdr:x>
+      <cdr:y>0.82611</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96522</cdr:x>
+      <cdr:y>0.89729</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="2" name="Picture 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFADDAC4-F940-E0CD-D03C-0BC03BBB7198}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7730565" y="5011271"/>
+          <a:ext cx="1254030" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
